--- a/02-simple-linear-models/lectures/02_excel-simple-linear-model.xlsx
+++ b/02-simple-linear-models/lectures/02_excel-simple-linear-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpepe-ranney/working/data730-lecture-notebooks/02-simple-linear-models/lectures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF5422D-C664-8046-928C-08715D2054AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E2D77-62EB-264A-8649-96D27F6BB44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{1EBB30EF-E771-6C40-A3D9-14B1984D381C}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="22">
   <si>
     <t>species</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>isChinstrap</t>
+  </si>
+  <si>
+    <t>bm = a*isGentoo + b*isChinstrap + c</t>
+  </si>
+  <si>
+    <t>y = m*x + b</t>
   </si>
 </sst>
 </file>
@@ -300,9 +306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF28195-5EC2-444D-ACAE-B8616DC3DE25}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,11 +646,14 @@
       </c>
       <c r="D2">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.094432102431668</v>
+        <v>37.44</v>
       </c>
       <c r="E2">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.1001483331454493E-5</v>
+        <v>2.7556000000000123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -659,11 +668,11 @@
       </c>
       <c r="D3">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.980246978002171</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="E3">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.3096492478715338</v>
+        <v>13.104400000000034</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -678,11 +687,11 @@
       </c>
       <c r="D4">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.494486266200397</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="E4">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.2598798429389735</v>
+        <v>13.690000000000021</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -697,11 +706,11 @@
       </c>
       <c r="D5">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.608671390629894</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="E5">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.4603692586688251</v>
+        <v>2.131599999999982</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
@@ -719,17 +728,17 @@
       </c>
       <c r="D6">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.722856515059377</v>
+        <v>39.72</v>
       </c>
       <c r="E6">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.0245206624469221</v>
+        <v>0.17640000000000144</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>0.85706548033037655</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -744,17 +753,17 @@
       </c>
       <c r="D7">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.323073170134322</v>
+        <v>36.36</v>
       </c>
       <c r="E7">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.33284456701885967</v>
+        <v>6.4515999999999956</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>23.067307620253622</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -769,11 +778,11 @@
       </c>
       <c r="D8">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.865791034729</v>
+        <v>38.519999999999996</v>
       </c>
       <c r="E8">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.44327770192550853</v>
+        <v>0.4624000000000093</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -788,11 +797,11 @@
       </c>
       <c r="D9">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E9">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>20.072127652708954</v>
+        <v>6.8643999999999865</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -807,11 +816,11 @@
       </c>
       <c r="D10">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.380030322927226</v>
+        <v>39.239999999999995</v>
       </c>
       <c r="E10">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.624301754635268</v>
+        <v>7.6176000000000279</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -829,18 +838,18 @@
       </c>
       <c r="D11">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.723127333903065</v>
+        <v>35.519999999999996</v>
       </c>
       <c r="E11">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.9094067928504154E-3</v>
+        <v>5.1984000000000048</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I11">
         <f>SUM(E2:E152)</f>
-        <v>900.97504303055325</v>
+        <v>1403.2460000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -855,11 +864,11 @@
       </c>
       <c r="D12">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.89454042996914</v>
+        <v>35.760000000000005</v>
       </c>
       <c r="E12">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.9378928987504779E-3</v>
+        <v>4.1615999999999671</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -874,11 +883,11 @@
       </c>
       <c r="D13">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.151660074068246</v>
+        <v>36.120000000000005</v>
       </c>
       <c r="E13">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.6927083188432679</v>
+        <v>24.800399999999968</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -893,11 +902,11 @@
       </c>
       <c r="D14">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>41.237095803257603</v>
+        <v>40.44</v>
       </c>
       <c r="E14">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.9542742755588538</v>
+        <v>3.3855999999999864</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -912,11 +921,11 @@
       </c>
       <c r="D15">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>41.151389255224572</v>
+        <v>40.32</v>
       </c>
       <c r="E15">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>42.920701173471954</v>
+        <v>32.718399999999988</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,11 +940,11 @@
       </c>
       <c r="D16">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.323073170134322</v>
+        <v>36.36</v>
       </c>
       <c r="E16">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.9689811496367362</v>
+        <v>5.7600000000000956E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -950,11 +959,11 @@
       </c>
       <c r="D17">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.351551746530774</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E17">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.42451967840729804</v>
+        <v>0.81000000000001027</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -969,11 +978,11 @@
       </c>
       <c r="D18">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.808563063092421</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="E18">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.8609589115352918</v>
+        <v>7.0755999999999819</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,11 +997,11 @@
       </c>
       <c r="D19">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.837312458332548</v>
+        <v>37.08</v>
       </c>
       <c r="E19">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>19.689741852873251</v>
+        <v>7.1823999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,11 +1016,11 @@
       </c>
       <c r="D20">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>41.494215447356723</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E20">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>20.302094434838779</v>
+        <v>27.040000000000031</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,11 +1035,11 @@
       </c>
       <c r="D21">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.751605910299517</v>
+        <v>36.96</v>
       </c>
       <c r="E21">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.90555380851697809</v>
+        <v>0.70559999999999379</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,11 +1054,11 @@
       </c>
       <c r="D22">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.094432102431668</v>
+        <v>37.44</v>
       </c>
       <c r="E22">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.9444408882919937</v>
+        <v>6.7600000000002658E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,11 +1073,11 @@
       </c>
       <c r="D23">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.522964842596849</v>
+        <v>38.04</v>
       </c>
       <c r="E23">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>13.125874250692823</v>
+        <v>4.5796000000000028</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1083,11 +1092,11 @@
       </c>
       <c r="D24">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E24">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.14454657599474224</v>
+        <v>2.1904000000000119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,11 +1111,11 @@
       </c>
       <c r="D25">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.808833881936096</v>
+        <v>35.64</v>
       </c>
       <c r="E25">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.98241027359786404</v>
+        <v>9.9855999999999785</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,11 +1130,11 @@
       </c>
       <c r="D26">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E26">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>15.72792813844757</v>
+        <v>5.6643999999999783</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,11 +1149,11 @@
       </c>
       <c r="D27">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E27">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.5321543612239741</v>
+        <v>10.758400000000007</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,11 +1168,11 @@
       </c>
       <c r="D28">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.408779718167359</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E28">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.3732022671481889</v>
+        <v>16.160400000000024</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,11 +1187,11 @@
       </c>
       <c r="D29">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E29">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.2292723549765374</v>
+        <v>0.33639999999999803</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,11 +1206,11 @@
       </c>
       <c r="D30">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E30">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.5231380740710923</v>
+        <v>7.9524000000000417</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1216,11 +1225,11 @@
       </c>
       <c r="D31">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.380301141770914</v>
+        <v>35.04</v>
       </c>
       <c r="E31">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.4931232495776889</v>
+        <v>19.891600000000007</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,11 +1244,11 @@
       </c>
       <c r="D32">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E32">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.9049322044616201</v>
+        <v>0.23040000000000382</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,11 +1263,11 @@
       </c>
       <c r="D33">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.323073170134322</v>
+        <v>36.36</v>
       </c>
       <c r="E33">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.3851567628576753</v>
+        <v>9.8596000000000039</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,11 +1282,11 @@
       </c>
       <c r="D34">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E34">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.6704619152728988</v>
+        <v>10.368400000000038</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,11 +1301,11 @@
       </c>
       <c r="D35">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E35">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.5312102013031821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1311,11 +1320,11 @@
       </c>
       <c r="D36">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>41.151389255224572</v>
+        <v>40.32</v>
       </c>
       <c r="E36">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.8079200254058994</v>
+        <v>1.2543999999999942</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,11 +1339,11 @@
       </c>
       <c r="D37">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.208617226861151</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.9842024918100061</v>
+        <v>4.0000000000001139E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1349,11 +1358,11 @@
       </c>
       <c r="D38">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E38">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>10.738604432641168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1368,11 +1377,11 @@
       </c>
       <c r="D39">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.608671390629894</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="E39">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.034760755535026</v>
+        <v>0.31359999999999461</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1387,11 +1396,11 @@
       </c>
       <c r="D40">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.437258294563819</v>
+        <v>37.92</v>
       </c>
       <c r="E40">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.13158154486274734</v>
+        <v>3.5343999999999829</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1406,11 +1415,11 @@
       </c>
       <c r="D41">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.494486266200397</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="E41">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.9779754660620013</v>
+        <v>9.999999999998864E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1425,11 +1434,11 @@
       </c>
       <c r="D42">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.837312458332548</v>
+        <v>37.08</v>
       </c>
       <c r="E42">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.8521423862166158</v>
+        <v>13.838399999999991</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1444,11 +1453,11 @@
       </c>
       <c r="D43">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E43">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.5440401115744962</v>
+        <v>1.4400000000000068</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1463,11 +1472,11 @@
       </c>
       <c r="D44">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.951497582762045</v>
+        <v>38.64</v>
       </c>
       <c r="E44">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>17.210072305829172</v>
+        <v>29.811600000000009</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1482,11 +1491,11 @@
       </c>
       <c r="D45">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.551714237836983</v>
+        <v>35.28</v>
       </c>
       <c r="E45">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.30438860023204262</v>
+        <v>2.9583999999999961</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1501,11 +1510,11 @@
       </c>
       <c r="D46">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.180138650464698</v>
+        <v>37.56</v>
       </c>
       <c r="E46">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.17628355283360586</v>
+        <v>4.1615999999999964</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1520,11 +1529,11 @@
       </c>
       <c r="D47">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.351551746530774</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E47">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.0570712950595924</v>
+        <v>10.890000000000029</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,11 +1548,11 @@
       </c>
       <c r="D48">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E48">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.1182092650575091</v>
+        <v>3.2399999999997341E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,11 +1567,11 @@
       </c>
       <c r="D49">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.408779718167359</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E49">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.8022197306544232</v>
+        <v>0.230399999999997</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,11 +1586,11 @@
       </c>
       <c r="D50">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>41.237095803257603</v>
+        <v>40.44</v>
       </c>
       <c r="E50">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.1297653314525948</v>
+        <v>3.4595999999999978</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1596,11 +1605,11 @@
       </c>
       <c r="D51">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.237366622101284</v>
+        <v>36.239999999999995</v>
       </c>
       <c r="E51">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.8567697225636688</v>
+        <v>11.289600000000044</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1615,11 +1624,11 @@
       </c>
       <c r="D52">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E52">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.69581423286928357</v>
+        <v>5.8564000000000425</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1634,11 +1643,11 @@
       </c>
       <c r="D53">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.408779718167359</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E53">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>11.619779166989142</v>
+        <v>2.1903999999999906</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1653,11 +1662,11 @@
       </c>
       <c r="D54">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.780084486695969</v>
+        <v>38.4</v>
       </c>
       <c r="E54">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.9280248862078979</v>
+        <v>12.96000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1672,11 +1681,11 @@
       </c>
       <c r="D55">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E55">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>16.647973401322215</v>
+        <v>4.9283999999999946</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1691,11 +1700,11 @@
       </c>
       <c r="D56">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E56">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.7181934741861653</v>
+        <v>16.646399999999986</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1710,11 +1719,11 @@
       </c>
       <c r="D57">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.065953526035216</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.87244281552604641</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1729,11 +1738,11 @@
       </c>
       <c r="D58">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.180138650464698</v>
+        <v>37.56</v>
       </c>
       <c r="E58">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.0160062519042117</v>
+        <v>9.2415999999999947</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1748,11 +1757,11 @@
       </c>
       <c r="D59">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.294594593737877</v>
+        <v>34.92</v>
       </c>
       <c r="E59">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.63138056839746126</v>
+        <v>2.4963999999999946</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,11 +1776,11 @@
       </c>
       <c r="D60">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.437258294563819</v>
+        <v>37.92</v>
       </c>
       <c r="E60">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.3755180409435459</v>
+        <v>0.10240000000000019</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1786,11 +1795,11 @@
       </c>
       <c r="D61">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.551714237836983</v>
+        <v>35.28</v>
       </c>
       <c r="E61">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.4288456186081868</v>
+        <v>0.17640000000000144</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1805,11 +1814,11 @@
       </c>
       <c r="D62">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>41.151389255224572</v>
+        <v>40.32</v>
       </c>
       <c r="E62">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.2085153462706515E-2</v>
+        <v>0.96039999999999393</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1824,11 +1833,11 @@
       </c>
       <c r="D63">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E63">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.4003152151298023E-3</v>
+        <v>4.8400000000000123</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1843,11 +1852,11 @@
       </c>
       <c r="D64">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.665899362266472</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="E64">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.9248459146147727</v>
+        <v>18.147599999999983</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1862,11 +1871,11 @@
       </c>
       <c r="D65">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.723127333903065</v>
+        <v>35.519999999999996</v>
       </c>
       <c r="E65">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.7506659417214367</v>
+        <v>0.77440000000000453</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1881,11 +1890,11 @@
       </c>
       <c r="D66">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.494486266200397</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="E66">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>9.6442155508179592</v>
+        <v>25.000000000000071</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1900,11 +1909,11 @@
       </c>
       <c r="D67">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>36.951768401605719</v>
+        <v>34.44</v>
       </c>
       <c r="E67">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.1076314919008237</v>
+        <v>1.1236000000000048</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1919,11 +1928,11 @@
       </c>
       <c r="D68">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.437258294563819</v>
+        <v>37.92</v>
       </c>
       <c r="E68">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.7647099789968257</v>
+        <v>10.112399999999997</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,11 +1947,11 @@
       </c>
       <c r="D69">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.294594593737877</v>
+        <v>34.92</v>
       </c>
       <c r="E69">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.9448940808829172</v>
+        <v>0.96039999999999393</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,11 +1966,11 @@
       </c>
       <c r="D70">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.694377938662925</v>
+        <v>38.28</v>
       </c>
       <c r="E70">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.4336442651893826</v>
+        <v>12.390399999999971</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1976,11 +1985,11 @@
       </c>
       <c r="D71">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.351551746530774</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E71">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>34.240657842327352</v>
+        <v>18.489999999999977</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1995,11 +2004,11 @@
       </c>
       <c r="D72">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.837312458332548</v>
+        <v>37.08</v>
       </c>
       <c r="E72">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.74422979454823712</v>
+        <v>6.8644000000000238</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2014,11 +2023,11 @@
       </c>
       <c r="D73">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.808833881936096</v>
+        <v>35.64</v>
       </c>
       <c r="E73">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.2082760625001217</v>
+        <v>15.681600000000007</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2033,11 +2042,11 @@
       </c>
       <c r="D74">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E74">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>42.695178969995055</v>
+        <v>65.934400000000068</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2052,11 +2061,11 @@
       </c>
       <c r="D75">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.065953526035216</v>
+        <v>36</v>
       </c>
       <c r="E75">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.5841174977725565</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2071,11 +2080,11 @@
       </c>
       <c r="D76">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E76">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>15.030981625002415</v>
+        <v>31.359999999999935</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2090,11 +2099,11 @@
       </c>
       <c r="D77">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.466007689803945</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="E77">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>11.792303186485629</v>
+        <v>32.947600000000023</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2109,11 +2118,11 @@
       </c>
       <c r="D78">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.694377938662925</v>
+        <v>38.28</v>
       </c>
       <c r="E78">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.2219213008882859</v>
+        <v>1.1663999999999963</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2128,11 +2137,11 @@
       </c>
       <c r="D79">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>36.866061853572688</v>
+        <v>34.32</v>
       </c>
       <c r="E79">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.44363839278468148</v>
+        <v>3.5344000000000095</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2147,11 +2156,11 @@
       </c>
       <c r="D80">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.437258294563819</v>
+        <v>37.92</v>
       </c>
       <c r="E80">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>7.0901933898691913</v>
+        <v>17.472399999999997</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2166,11 +2175,11 @@
       </c>
       <c r="D81">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.808833881936096</v>
+        <v>35.64</v>
       </c>
       <c r="E81">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>10.296614881861064</v>
+        <v>1.0815999999999981</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2185,11 +2194,11 @@
       </c>
       <c r="D82">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.151660074068246</v>
+        <v>36.120000000000005</v>
       </c>
       <c r="E82">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>22.546732052197559</v>
+        <v>45.968399999999917</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,11 +2213,11 @@
       </c>
       <c r="D83">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.180138650464698</v>
+        <v>37.56</v>
       </c>
       <c r="E83">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.1510877255288419</v>
+        <v>0.73959999999999904</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2223,11 +2232,11 @@
       </c>
       <c r="D84">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.694377938662925</v>
+        <v>38.28</v>
       </c>
       <c r="E84">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>21.108308643272569</v>
+        <v>10.112399999999997</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2242,11 +2251,11 @@
       </c>
       <c r="D85">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.323073170134322</v>
+        <v>36.36</v>
       </c>
       <c r="E85">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.0466787114486966</v>
+        <v>0.88359999999999572</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2261,11 +2270,11 @@
       </c>
       <c r="D86">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.465736870960271</v>
+        <v>39.36</v>
       </c>
       <c r="E86">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.6959949684751553</v>
+        <v>3.7635999999999914</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,11 +2289,11 @@
       </c>
       <c r="D87">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.780084486695969</v>
+        <v>38.4</v>
       </c>
       <c r="E87">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>12.110988034541968</v>
+        <v>4.4100000000000064</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2299,11 +2308,11 @@
       </c>
       <c r="D88">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E88">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.446723463773786</v>
+        <v>0.17640000000000144</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,11 +2327,11 @@
       </c>
       <c r="D89">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.522964842596849</v>
+        <v>38.04</v>
       </c>
       <c r="E89">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.4956430062279431</v>
+        <v>6.7599999999998966E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2337,11 +2346,11 @@
       </c>
       <c r="D90">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.180138650464698</v>
+        <v>37.56</v>
       </c>
       <c r="E90">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>7.8477663484183294E-2</v>
+        <v>1.7955999999999901</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2356,11 +2365,11 @@
       </c>
       <c r="D91">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.494486266200397</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="E91">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>7.8091534919826202</v>
+        <v>0.80999999999998462</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,11 +2384,11 @@
       </c>
       <c r="D92">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E92">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.3494282534407889</v>
+        <v>19.184400000000021</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2394,11 +2403,11 @@
       </c>
       <c r="D93">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.723127333903065</v>
+        <v>35.519999999999996</v>
       </c>
       <c r="E93">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>13.861677144456145</v>
+        <v>2.310399999999988</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2413,11 +2422,11 @@
       </c>
       <c r="D94">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E94">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.0400066961411103</v>
+        <v>8.2944000000000155</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2432,11 +2441,11 @@
       </c>
       <c r="D95">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.89454042996914</v>
+        <v>35.760000000000005</v>
       </c>
       <c r="E95">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.8714672687999898</v>
+        <v>0.193599999999998</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2451,11 +2460,11 @@
       </c>
       <c r="D96">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E96">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.3536309549724419</v>
+        <v>9.7344000000000293</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2470,11 +2479,11 @@
       </c>
       <c r="D97">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E97">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.82578213321708238</v>
+        <v>0.60840000000000183</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,11 +2498,11 @@
       </c>
       <c r="D98">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E98">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.8960766568303922</v>
+        <v>9.6099999999999639</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2508,11 +2517,11 @@
       </c>
       <c r="D99">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>36.866061853572688</v>
+        <v>34.32</v>
       </c>
       <c r="E99">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>14.183221884935342</v>
+        <v>1.4883999999999973</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2527,11 +2536,11 @@
       </c>
       <c r="D100">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E100">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>18.292566419909988</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2546,11 +2555,11 @@
       </c>
       <c r="D101">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.408779718167359</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E101">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>11.619779166989142</v>
+        <v>2.1903999999999906</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2565,11 +2574,11 @@
       </c>
       <c r="D102">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.208617226861151</v>
+        <v>39</v>
       </c>
       <c r="E102">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.62628669362093559</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,11 +2593,11 @@
       </c>
       <c r="D103">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>36.780355305539643</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E103">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.84574636404908765</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2603,11 +2612,11 @@
       </c>
       <c r="D104">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.208617226861151</v>
+        <v>39</v>
       </c>
       <c r="E104">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.8014369455323127</v>
+        <v>1.4400000000000068</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2622,11 +2631,11 @@
       </c>
       <c r="D105">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E105">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.2292723549765374</v>
+        <v>0.33639999999999803</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2641,11 +2650,11 @@
       </c>
       <c r="D106">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.265845198497736</v>
+        <v>37.679999999999993</v>
       </c>
       <c r="E106">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.18849039166747261</v>
+        <v>4.0804000000000418</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2660,11 +2669,11 @@
       </c>
       <c r="D107">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.808833881936096</v>
+        <v>35.64</v>
       </c>
       <c r="E107">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.62594382637231016</v>
+        <v>8.7616000000000049</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2679,11 +2688,11 @@
       </c>
       <c r="D108">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.208617226861151</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.0345431640433675</v>
+        <v>0.63999999999999546</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2698,11 +2707,11 @@
       </c>
       <c r="D109">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E109">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.21397952934511097</v>
+        <v>7.2900000000000151</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,11 +2726,11 @@
       </c>
       <c r="D110">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.351551746530774</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E110">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>14.81055395963036</v>
+        <v>29.160000000000061</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2736,11 +2745,11 @@
       </c>
       <c r="D111">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.208888045704839</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E111">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.79408051508774369</v>
+        <v>10.890000000000029</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2755,11 +2764,11 @@
       </c>
       <c r="D112">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.465736870960271</v>
+        <v>39.36</v>
       </c>
       <c r="E112">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>26.360657878216845</v>
+        <v>38.937600000000025</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2774,11 +2783,11 @@
       </c>
       <c r="D113">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.237366622101284</v>
+        <v>36.239999999999995</v>
       </c>
       <c r="E113">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.1392963981434163</v>
+        <v>11.971600000000056</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2793,11 +2802,11 @@
       </c>
       <c r="D114">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.780084486695969</v>
+        <v>38.4</v>
       </c>
       <c r="E114">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.8559910915295239</v>
+        <v>14.440000000000033</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2812,11 +2821,11 @@
       </c>
       <c r="D115">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.808563063092421</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="E115">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.4606246774713327</v>
+        <v>5.7600000000000956E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2831,11 +2840,11 @@
       </c>
       <c r="D116">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.751605910299517</v>
+        <v>36.96</v>
       </c>
       <c r="E116">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>15.589815887581727</v>
+        <v>32.947600000000023</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2850,11 +2859,11 @@
       </c>
       <c r="D117">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E117">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.92655874347509215</v>
+        <v>10.240000000000018</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2869,11 +2878,11 @@
       </c>
       <c r="D118">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.637149967026346</v>
+        <v>39.599999999999994</v>
       </c>
       <c r="E118">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>11.136569902423961</v>
+        <v>5.2899999999999867</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2888,11 +2897,11 @@
       </c>
       <c r="D119">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E119">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.7535993015211959</v>
+        <v>9.0000000000002564E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2907,11 +2916,11 @@
       </c>
       <c r="D120">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E120">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.373428806825352</v>
+        <v>14.288400000000008</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2926,11 +2935,11 @@
       </c>
       <c r="D121">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.808833881936096</v>
+        <v>35.64</v>
       </c>
       <c r="E121">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.5883464596655577</v>
+        <v>0.31360000000000254</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,11 +2954,11 @@
       </c>
       <c r="D122">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.037204130795075</v>
+        <v>38.760000000000005</v>
       </c>
       <c r="E122">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.4625231490055501</v>
+        <v>1.1236000000000048</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2964,11 +2973,11 @@
       </c>
       <c r="D123">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E123">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.5668122286910391</v>
+        <v>23.040000000000042</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2983,11 +2992,11 @@
       </c>
       <c r="D124">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E124">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.1354348428260899</v>
+        <v>17.639999999999965</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3002,11 +3011,11 @@
       </c>
       <c r="D125">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>36.694648757506613</v>
+        <v>34.08</v>
       </c>
       <c r="E125">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.2339749083160534</v>
+        <v>1.2544000000000102</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,11 +3030,11 @@
       </c>
       <c r="D126">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.351551746530774</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E126">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.5586230415903648</v>
+        <v>7.8400000000000238</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,11 +3049,11 @@
       </c>
       <c r="D127">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.151660074068246</v>
+        <v>36.120000000000005</v>
       </c>
       <c r="E127">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.42034465955718814</v>
+        <v>7.1823999999999604</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,11 +3068,11 @@
       </c>
       <c r="D128">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.751605910299517</v>
+        <v>36.96</v>
       </c>
       <c r="E128">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>7.5536700723005454</v>
+        <v>20.611599999999992</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3078,11 +3087,11 @@
       </c>
       <c r="D129">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.723127333903065</v>
+        <v>35.519999999999996</v>
       </c>
       <c r="E129">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.6304038054254948</v>
+        <v>12.110400000000027</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3097,11 +3106,11 @@
       </c>
       <c r="D130">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.494486266200397</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="E130">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>31.421784219815983</v>
+        <v>56.250000000000107</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3116,11 +3125,11 @@
       </c>
       <c r="D131">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.408779718167359</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E131">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.3211398176263867E-3</v>
+        <v>4.0804000000000125</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3135,11 +3144,11 @@
       </c>
       <c r="D132">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.522964842596849</v>
+        <v>38.04</v>
       </c>
       <c r="E132">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>12.795180517298194</v>
+        <v>25.603600000000021</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,11 +3163,11 @@
       </c>
       <c r="D133">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E133">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.5072097013895602</v>
+        <v>0.16000000000000456</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3173,11 +3182,11 @@
       </c>
       <c r="D134">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E134">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.0249830924777181</v>
+        <v>8.999999999999829E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3192,11 +3201,11 @@
       </c>
       <c r="D135">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.151660074068246</v>
+        <v>36.120000000000005</v>
       </c>
       <c r="E135">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.6687632527365502E-3</v>
+        <v>3.9203999999999875</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3211,11 +3220,11 @@
       </c>
       <c r="D136">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.065953526035216</v>
+        <v>36</v>
       </c>
       <c r="E136">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>9.2054380061781487</v>
+        <v>26.010000000000016</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3230,11 +3239,11 @@
       </c>
       <c r="D137">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.065953526035216</v>
+        <v>36</v>
       </c>
       <c r="E137">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.0809267925655064</v>
+        <v>0.15999999999999887</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3249,11 +3258,11 @@
       </c>
       <c r="D138">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>40.294323774894195</v>
+        <v>39.120000000000005</v>
       </c>
       <c r="E138">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.8969745102903033E-3</v>
+        <v>1.1663999999999963</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3268,11 +3277,11 @@
       </c>
       <c r="D139">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.208888045704839</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E139">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>4.3634215638386903E-2</v>
+        <v>4.8400000000000123</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3287,11 +3296,11 @@
       </c>
       <c r="D140">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.408779718167359</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="E140">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>1.6672498162159712</v>
+        <v>10.368400000000038</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3306,11 +3315,11 @@
       </c>
       <c r="D141">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.723127333903065</v>
+        <v>35.519999999999996</v>
       </c>
       <c r="E141">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.1348982040581523</v>
+        <v>21.902400000000064</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3325,11 +3334,11 @@
       </c>
       <c r="D142">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.808833881936096</v>
+        <v>35.64</v>
       </c>
       <c r="E142">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>7.7906082986279337</v>
+        <v>24.601600000000008</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3344,11 +3353,11 @@
       </c>
       <c r="D143">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>36.351822565374462</v>
+        <v>33.599999999999994</v>
       </c>
       <c r="E143">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>18.07799512742746</v>
+        <v>2.2499999999999787</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3363,11 +3372,11 @@
       </c>
       <c r="D144">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.63742078587002</v>
+        <v>35.4</v>
       </c>
       <c r="E144">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>9.3793914428210208</v>
+        <v>28.090000000000046</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3382,11 +3391,11 @@
       </c>
       <c r="D145">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.466007689803945</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="E145">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.7558553074043739E-2</v>
+        <v>4.5796000000000028</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3401,11 +3410,11 @@
       </c>
       <c r="D146">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.094432102431668</v>
+        <v>37.44</v>
       </c>
       <c r="E146">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>8.917421969665015E-3</v>
+        <v>2.4336000000000073</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3420,11 +3429,11 @@
       </c>
       <c r="D147">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>39.008725554398623</v>
+        <v>37.32</v>
       </c>
       <c r="E147">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>3.6585913540115179E-2</v>
+        <v>3.5344000000000095</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3439,11 +3448,11 @@
       </c>
       <c r="D148">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.837312458332548</v>
+        <v>37.08</v>
       </c>
       <c r="E148">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.0055670362100217</v>
+        <v>0.230399999999997</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3458,11 +3467,11 @@
       </c>
       <c r="D149">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.323073170134322</v>
+        <v>36.36</v>
       </c>
       <c r="E149">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>5.3966689537979269</v>
+        <v>0.1295999999999996</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,11 +3486,11 @@
       </c>
       <c r="D150">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.580192814233442</v>
+        <v>36.72</v>
       </c>
       <c r="E150">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>0.60870082738150233</v>
+        <v>1.1663999999999963</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3496,11 +3505,11 @@
       </c>
       <c r="D151">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>37.723127333903065</v>
+        <v>35.519999999999996</v>
       </c>
       <c r="E151">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>2.9691678088438849</v>
+        <v>0.23040000000000382</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3515,11 +3524,11 @@
       </c>
       <c r="D152">
         <f>$I$6*Table1[[#This Row],[bill_depth_mm]]+$I$7</f>
-        <v>38.923019006365593</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E152">
         <f>(Table1[[#This Row],[predicted_bill_length_mm]]-Table1[[#This Row],[bill_length_mm]])^2</f>
-        <v>6.6408310415529783</v>
+        <v>18.489999999999977</v>
       </c>
     </row>
   </sheetData>
@@ -3534,15 +3543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2835007A-2C1B-5042-A84B-0641FECA7AAB}">
   <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -3585,11 +3594,11 @@
       </c>
       <c r="E2">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>2434.4197218546265</v>
+        <v>10562500</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3609,11 +3618,11 @@
       </c>
       <c r="E3">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F3">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3633,11 +3642,11 @@
       </c>
       <c r="E4">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>203094.58062752208</v>
+        <v>7562500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3657,11 +3666,11 @@
       </c>
       <c r="E5">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62830.516265255101</v>
+        <v>8702500</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>4</v>
@@ -3684,17 +3693,17 @@
       </c>
       <c r="E6">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>2566.4519029881171</v>
+        <v>9922500</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>32.430382789821415</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3714,17 +3723,17 @@
       </c>
       <c r="E7">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5724.4599482714893</v>
+        <v>9765625</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J7">
-        <v>1375.3570299446055</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3744,17 +3753,17 @@
       </c>
       <c r="E8">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F8">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>949338.12204636983</v>
+        <v>17430625</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J8">
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3774,11 +3783,11 @@
       </c>
       <c r="E9">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F9">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50922.508219971729</v>
+        <v>8850625</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3798,11 +3807,11 @@
       </c>
       <c r="E10">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>301774.25881618715</v>
+        <v>14062500</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>9</v>
@@ -3825,18 +3834,18 @@
       </c>
       <c r="E11">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>160528.56453695532</v>
+        <v>7840000</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J11">
         <f>SUM(F2:F343)</f>
-        <v>72443483.214031324</v>
+        <v>4170778750</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3856,11 +3865,11 @@
       </c>
       <c r="E12">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F12">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3880,11 +3889,11 @@
       </c>
       <c r="E13">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F13">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>250660.59671808881</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3904,11 +3913,14 @@
       </c>
       <c r="E14">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F14">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3928,11 +3940,11 @@
       </c>
       <c r="E15">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F15">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>489076.21054448694</v>
+        <v>15210000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3952,11 +3964,11 @@
       </c>
       <c r="E16">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F16">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3976,11 +3988,11 @@
       </c>
       <c r="E17">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F17">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62830.516265255101</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4000,11 +4012,11 @@
       </c>
       <c r="E18">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F18">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>638944.17836335348</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4024,11 +4036,11 @@
       </c>
       <c r="E19">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141120.55649167197</v>
+        <v>7980625</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,11 +4060,11 @@
       </c>
       <c r="E20">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F20">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>249340.27490675391</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4072,11 +4084,11 @@
       </c>
       <c r="E21">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F21">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>90396.532355821837</v>
+        <v>8410000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4096,11 +4108,11 @@
       </c>
       <c r="E22">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F22">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>10132.467993554863</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4120,11 +4132,11 @@
       </c>
       <c r="E23">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F23">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4144,11 +4156,11 @@
       </c>
       <c r="E24">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F24">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62170.355359587644</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4168,11 +4180,11 @@
       </c>
       <c r="E25">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F25">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4192,11 +4204,11 @@
       </c>
       <c r="E26">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F26">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -4216,11 +4228,11 @@
       </c>
       <c r="E27">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F27">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,11 +4252,11 @@
       </c>
       <c r="E28">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F28">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>250660.59671808881</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4264,11 +4276,11 @@
       </c>
       <c r="E29">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F29">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>303226.6128086556</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4288,11 +4300,11 @@
       </c>
       <c r="E30">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F30">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62170.355359587644</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4312,11 +4324,11 @@
       </c>
       <c r="E31">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F31">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>203094.58062752208</v>
+        <v>7562500</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4336,11 +4348,11 @@
       </c>
       <c r="E32">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F32">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4360,11 +4372,11 @@
       </c>
       <c r="E33">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F33">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>160528.56453695532</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4384,11 +4396,11 @@
       </c>
       <c r="E34">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F34">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,11 +4420,11 @@
       </c>
       <c r="E35">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F35">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141120.55649167197</v>
+        <v>7980625</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4432,11 +4444,11 @@
       </c>
       <c r="E36">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F36">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>201906.29099732067</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4456,11 +4468,11 @@
       </c>
       <c r="E37">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F37">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62170.355359587644</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4480,11 +4492,11 @@
       </c>
       <c r="E38">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F38">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4504,11 +4516,11 @@
       </c>
       <c r="E39">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F39">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>160528.56453695532</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4528,11 +4540,11 @@
       </c>
       <c r="E40">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F40">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>901246.13009165321</v>
+        <v>17222500</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,11 +4564,11 @@
       </c>
       <c r="E41">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F41">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>303226.6128086556</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4576,11 +4588,11 @@
       </c>
       <c r="E42">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F42">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4600,11 +4612,11 @@
       </c>
       <c r="E43">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F43">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>360792.6288992223</v>
+        <v>6760000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4624,11 +4636,11 @@
       </c>
       <c r="E44">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F44">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>489076.21054448694</v>
+        <v>15210000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4648,11 +4660,11 @@
       </c>
       <c r="E45">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F45">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>490924.66108035581</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4672,11 +4684,11 @@
       </c>
       <c r="E46">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F46">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>808812.14618221996</v>
+        <v>16810000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4696,11 +4708,11 @@
       </c>
       <c r="E47">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F47">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>75988.524310538472</v>
+        <v>8555625</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4720,11 +4732,11 @@
       </c>
       <c r="E48">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F48">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>526582.66912563914</v>
+        <v>6125625</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4744,11 +4756,11 @@
       </c>
       <c r="E49">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F49">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62830.516265255101</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4768,11 +4780,11 @@
       </c>
       <c r="E50">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F50">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>201906.29099732067</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4792,11 +4804,11 @@
       </c>
       <c r="E51">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F51">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40264.50017468835</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4816,11 +4828,11 @@
       </c>
       <c r="E52">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F52">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>359208.24272562045</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4840,11 +4852,11 @@
       </c>
       <c r="E53">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F53">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62830.516265255101</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4864,11 +4876,11 @@
       </c>
       <c r="E54">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F54">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>122038.32317845416</v>
+        <v>12602500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4888,11 +4900,11 @@
       </c>
       <c r="E55">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F55">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>641056.69326148927</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4912,11 +4924,11 @@
       </c>
       <c r="E56">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F56">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4936,11 +4948,11 @@
       </c>
       <c r="E57">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F57">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4960,11 +4972,11 @@
       </c>
       <c r="E58">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F58">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4984,11 +4996,11 @@
       </c>
       <c r="E59">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F59">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>723622.70935205603</v>
+        <v>5522500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5008,11 +5020,11 @@
       </c>
       <c r="E60">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F60">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>2434.4197218546265</v>
+        <v>10562500</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5032,11 +5044,11 @@
       </c>
       <c r="E61">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F61">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>303226.6128086556</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5056,11 +5068,11 @@
       </c>
       <c r="E62">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F62">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>489076.21054448694</v>
+        <v>15210000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5080,11 +5092,11 @@
       </c>
       <c r="E63">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F63">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>10132.467993554863</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,11 +5116,11 @@
       </c>
       <c r="E64">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F64">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>122038.32317845416</v>
+        <v>12602500</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5128,11 +5140,11 @@
       </c>
       <c r="E65">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F65">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>723622.70935205603</v>
+        <v>5522500</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5152,11 +5164,11 @@
       </c>
       <c r="E66">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F66">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62170.355359587644</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5176,11 +5188,11 @@
       </c>
       <c r="E67">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F67">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>122962.5484463886</v>
+        <v>8122500</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,11 +5212,11 @@
       </c>
       <c r="E68">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F68">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>159472.3070878874</v>
+        <v>12960000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,11 +5236,11 @@
       </c>
       <c r="E69">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F69">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>423358.64498978906</v>
+        <v>6502500</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -5248,11 +5260,11 @@
       </c>
       <c r="E70">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F70">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>561510.19445392024</v>
+        <v>15602500</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,11 +5284,11 @@
       </c>
       <c r="E71">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F71">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>10132.467993554863</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -5296,11 +5308,11 @@
       </c>
       <c r="E72">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F72">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -5320,11 +5332,11 @@
       </c>
       <c r="E73">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F73">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,11 +5356,11 @@
       </c>
       <c r="E74">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F74">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>201906.29099732067</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -5368,11 +5380,11 @@
       </c>
       <c r="E75">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F75">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -5392,11 +5404,11 @@
       </c>
       <c r="E76">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F76">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>301774.25881618715</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5416,11 +5428,11 @@
       </c>
       <c r="E77">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F77">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -5440,11 +5452,11 @@
       </c>
       <c r="E78">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F78">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -5464,11 +5476,11 @@
       </c>
       <c r="E79">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F79">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -5488,11 +5500,11 @@
       </c>
       <c r="E80">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F80">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>89604.3392690209</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -5512,11 +5524,11 @@
       </c>
       <c r="E81">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F81">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>250660.59671808881</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -5536,11 +5548,11 @@
       </c>
       <c r="E82">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F82">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>998680.11400108645</v>
+        <v>17640000</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5560,11 +5572,11 @@
       </c>
       <c r="E83">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F83">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5584,11 +5596,11 @@
       </c>
       <c r="E84">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F84">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>249340.27490675391</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -5608,11 +5620,11 @@
       </c>
       <c r="E85">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F85">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>122962.5484463886</v>
+        <v>8122500</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5632,11 +5644,11 @@
       </c>
       <c r="E86">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F86">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5656,11 +5668,11 @@
       </c>
       <c r="E87">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F87">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>9868.4036312878816</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5680,11 +5692,11 @@
       </c>
       <c r="E88">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F88">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40264.50017468835</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -5704,11 +5716,11 @@
       </c>
       <c r="E89">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F89">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62170.355359587644</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5728,11 +5740,11 @@
       </c>
       <c r="E90">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F90">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>10132.467993554863</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5752,11 +5764,11 @@
       </c>
       <c r="E91">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F91">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5776,11 +5788,11 @@
       </c>
       <c r="E92">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F92">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>359208.24272562045</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5800,11 +5812,11 @@
       </c>
       <c r="E93">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F93">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>90396.532355821837</v>
+        <v>8410000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5824,11 +5836,11 @@
       </c>
       <c r="E94">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F94">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>561510.19445392024</v>
+        <v>15602500</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5848,11 +5860,11 @@
       </c>
       <c r="E95">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F95">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>160528.56453695532</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5872,11 +5884,11 @@
       </c>
       <c r="E96">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F96">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>359208.24272562045</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5896,11 +5908,11 @@
       </c>
       <c r="E97">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F97">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5920,11 +5932,11 @@
       </c>
       <c r="E98">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F98">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>421642.2266350537</v>
+        <v>14822500</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5944,11 +5956,11 @@
       </c>
       <c r="E99">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F99">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>641056.69326148927</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5968,11 +5980,11 @@
       </c>
       <c r="E100">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F100">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>159472.3070878874</v>
+        <v>12960000</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5992,11 +6004,11 @@
       </c>
       <c r="E101">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F101">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>592.42776713799901</v>
+        <v>10400625</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -6016,11 +6028,11 @@
       </c>
       <c r="E102">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F102">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1049272.1059558031</v>
+        <v>17850625</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -6040,11 +6052,11 @@
       </c>
       <c r="E103">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F103">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>391450.63694450568</v>
+        <v>6630625</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -6064,11 +6076,11 @@
       </c>
       <c r="E104">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F104">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>301774.25881618715</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6088,11 +6100,11 @@
       </c>
       <c r="E105">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F105">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>601648.68521620589</v>
+        <v>5880625</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -6112,11 +6124,11 @@
       </c>
       <c r="E106">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F106">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22698.484084121606</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -6136,11 +6148,11 @@
       </c>
       <c r="E107">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F107">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>2434.4197218546265</v>
+        <v>10562500</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -6160,11 +6172,11 @@
       </c>
       <c r="E108">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F108">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -6184,11 +6196,11 @@
       </c>
       <c r="E109">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F109">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>276318.60476337222</v>
+        <v>7155625</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -6208,11 +6220,11 @@
       </c>
       <c r="E110">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F110">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1154206.0898652363</v>
+        <v>18275625</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -6232,11 +6244,11 @@
       </c>
       <c r="E111">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F111">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15460.395586004508</v>
+        <v>11055625</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -6256,11 +6268,11 @@
       </c>
       <c r="E112">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F112">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>808812.14618221996</v>
+        <v>16810000</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -6280,11 +6292,11 @@
       </c>
       <c r="E113">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F113">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>250660.59671808881</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -6304,11 +6316,11 @@
       </c>
       <c r="E114">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F114">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>329866.25077090377</v>
+        <v>14250625</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -6328,11 +6340,11 @@
       </c>
       <c r="E115">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F115">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -6352,11 +6364,11 @@
       </c>
       <c r="E116">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F116">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>140130.31513317078</v>
+        <v>12780625</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -6376,11 +6388,11 @@
       </c>
       <c r="E117">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F117">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>641056.69326148927</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -6400,11 +6412,11 @@
       </c>
       <c r="E118">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F118">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5526.4116765712533</v>
+        <v>10725625</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -6424,11 +6436,11 @@
       </c>
       <c r="E119">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F119">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>122962.5484463886</v>
+        <v>8122500</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -6448,11 +6460,11 @@
       </c>
       <c r="E120">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F120">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141120.55649167197</v>
+        <v>7980625</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -6472,11 +6484,11 @@
       </c>
       <c r="E121">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F121">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>303226.6128086556</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -6496,11 +6508,11 @@
       </c>
       <c r="E122">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F122">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40264.50017468835</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -6520,11 +6532,11 @@
       </c>
       <c r="E123">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F123">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62830.516265255101</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -6544,11 +6556,11 @@
       </c>
       <c r="E124">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F124">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>30394.379495437763</v>
+        <v>11390625</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -6568,11 +6580,11 @@
       </c>
       <c r="E125">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F125">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>423358.64498978906</v>
+        <v>6502500</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -6592,11 +6604,11 @@
       </c>
       <c r="E126">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F126">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>89604.3392690209</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -6616,11 +6628,11 @@
       </c>
       <c r="E127">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F127">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>181186.5725822387</v>
+        <v>7700625</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -6640,11 +6652,11 @@
       </c>
       <c r="E128">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F128">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>359208.24272562045</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -6664,11 +6676,11 @@
       </c>
       <c r="E129">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F129">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>423358.64498978906</v>
+        <v>6502500</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -6688,11 +6700,11 @@
       </c>
       <c r="E130">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F130">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>89604.3392690209</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6712,11 +6724,11 @@
       </c>
       <c r="E131">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F131">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141120.55649167197</v>
+        <v>7980625</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -6736,11 +6748,11 @@
       </c>
       <c r="E132">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F132">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40264.50017468835</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -6760,11 +6772,11 @@
       </c>
       <c r="E133">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F133">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40264.50017468835</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -6784,11 +6796,11 @@
       </c>
       <c r="E134">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F134">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>599602.18640863686</v>
+        <v>15800625</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -6808,11 +6820,11 @@
       </c>
       <c r="E135">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F135">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>75988.524310538472</v>
+        <v>8555625</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -6832,11 +6844,11 @@
       </c>
       <c r="E136">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F136">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>39736.371450154387</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -6856,11 +6868,11 @@
       </c>
       <c r="E137">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F137">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>276318.60476337222</v>
+        <v>7155625</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -6880,11 +6892,11 @@
       </c>
       <c r="E138">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F138">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>75262.347314304279</v>
+        <v>12075625</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -6904,11 +6916,11 @@
       </c>
       <c r="E139">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F139">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>90396.532355821837</v>
+        <v>8410000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -6928,11 +6940,11 @@
       </c>
       <c r="E140">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F140">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>301774.25881618715</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -6952,11 +6964,11 @@
       </c>
       <c r="E141">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F141">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>90396.532355821837</v>
+        <v>8410000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -6976,11 +6988,11 @@
       </c>
       <c r="E142">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F142">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50922.508219971729</v>
+        <v>8850625</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -7000,11 +7012,11 @@
       </c>
       <c r="E143">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F143">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>423358.64498978906</v>
+        <v>6502500</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -7024,11 +7036,11 @@
       </c>
       <c r="E144">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F144">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>592.42776713799901</v>
+        <v>10400625</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -7048,11 +7060,11 @@
       </c>
       <c r="E145">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F145">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>490924.66108035581</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -7072,11 +7084,11 @@
       </c>
       <c r="E146">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F146">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>2566.4519029881171</v>
+        <v>9922500</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -7096,11 +7108,11 @@
       </c>
       <c r="E147">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F147">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>301774.25881618715</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -7120,11 +7132,11 @@
       </c>
       <c r="E148">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F148">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50922.508219971729</v>
+        <v>8850625</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -7144,11 +7156,11 @@
       </c>
       <c r="E149">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F149">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>62830.516265255101</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -7168,11 +7180,11 @@
       </c>
       <c r="E150">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F150">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>2434.4197218546265</v>
+        <v>10562500</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -7192,11 +7204,11 @@
       </c>
       <c r="E151">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F151">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>0.4358124213716722</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -7216,11 +7228,11 @@
       </c>
       <c r="E152">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3700.6601609056675</v>
+        <v>500</v>
       </c>
       <c r="F152">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>89604.3392690209</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -7240,11 +7252,11 @@
       </c>
       <c r="E153">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F153">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>331795.80415503931</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -7264,11 +7276,11 @@
       </c>
       <c r="E154">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F154">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>389354.54611438524</v>
+        <v>22090000</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -7288,11 +7300,11 @@
       </c>
       <c r="E155">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F155">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>391897.52324006654</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -7312,11 +7324,11 @@
       </c>
       <c r="E156">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F156">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>389354.54611438524</v>
+        <v>22090000</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -7336,11 +7348,11 @@
       </c>
       <c r="E157">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F157">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>104964.86062454873</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7360,11 +7372,11 @@
       </c>
       <c r="E158">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F158">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>276694.08507001202</v>
+        <v>12602500</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -7384,11 +7396,11 @@
       </c>
       <c r="E159">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F159">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>76185.489644875764</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7408,11 +7420,11 @@
       </c>
       <c r="E160">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F160">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15371.736964657746</v>
+        <v>17640000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7432,11 +7444,11 @@
       </c>
       <c r="E161">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F161">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>456999.24232509377</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -7456,11 +7468,11 @@
       </c>
       <c r="E162">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F162">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5473.456049684999</v>
+        <v>17222500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -7480,11 +7492,11 @@
       </c>
       <c r="E163">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F163">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>181490.64689995753</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7504,11 +7516,11 @@
       </c>
       <c r="E164">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F164">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>224659.70336946697</v>
+        <v>20702500</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7528,11 +7540,11 @@
       </c>
       <c r="E165">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F165">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>181490.64689995753</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -7552,11 +7564,11 @@
       </c>
       <c r="E166">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F166">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>599049.38885930344</v>
+        <v>23522500</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7576,11 +7588,11 @@
       </c>
       <c r="E167">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F167">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>767406.11866520275</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -7600,11 +7612,11 @@
       </c>
       <c r="E168">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F168">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>599049.38885930344</v>
+        <v>23522500</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -7624,11 +7636,11 @@
       </c>
       <c r="E169">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F169">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>857507.8377502301</v>
+        <v>9922500</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -7648,11 +7660,11 @@
       </c>
       <c r="E170">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F170">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1498133.9170940581</v>
+        <v>28090000</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -7672,11 +7684,11 @@
       </c>
       <c r="E171">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F171">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>76185.489644875764</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -7696,11 +7708,11 @@
       </c>
       <c r="E172">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F172">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>75066.579709575992</v>
+        <v>18922500</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -7720,11 +7732,11 @@
       </c>
       <c r="E173">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F173">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>389354.54611438524</v>
+        <v>22090000</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -7744,11 +7756,11 @@
       </c>
       <c r="E174">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F174">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5778.6133047667572</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -7768,11 +7780,11 @@
       </c>
       <c r="E175">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F175">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>456999.24232509377</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -7792,11 +7804,11 @@
       </c>
       <c r="E176">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F176">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>676.89421973950448</v>
+        <v>16402500</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -7816,11 +7828,11 @@
       </c>
       <c r="E177">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F177">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5778.6133047667572</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -7840,11 +7852,11 @@
       </c>
       <c r="E178">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F178">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>575.17513471225175</v>
+        <v>16810000</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -7864,11 +7876,11 @@
       </c>
       <c r="E179">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F179">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>952609.55683525733</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -7888,11 +7900,11 @@
       </c>
       <c r="E180">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F180">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>329456.26519941248</v>
+        <v>21622500</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -7912,11 +7924,11 @@
       </c>
       <c r="E181">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F181">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>226592.36598498479</v>
+        <v>12960000</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -7936,11 +7948,11 @@
       </c>
       <c r="E182">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F182">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>224659.70336946697</v>
+        <v>20702500</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,11 +7972,11 @@
       </c>
       <c r="E183">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F183">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>30270.017879630494</v>
+        <v>18062500</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -7984,11 +7996,11 @@
       </c>
       <c r="E184">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F184">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141388.92781493027</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -8008,11 +8020,11 @@
       </c>
       <c r="E185">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F185">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>676.89421973950448</v>
+        <v>16402500</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -8032,11 +8044,11 @@
       </c>
       <c r="E186">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F186">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>948642.5125191944</v>
+        <v>25502500</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -8056,11 +8068,11 @@
       </c>
       <c r="E187">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F187">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5473.456049684999</v>
+        <v>17222500</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -8080,11 +8092,11 @@
       </c>
       <c r="E188">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F188">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>104964.86062454873</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -8104,11 +8116,11 @@
       </c>
       <c r="E189">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F189">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15880.33238979401</v>
+        <v>15602500</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -8128,11 +8140,11 @@
       </c>
       <c r="E190">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F190">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>30270.017879630494</v>
+        <v>18062500</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -8152,11 +8164,11 @@
       </c>
       <c r="E191">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F191">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>527100.96141012106</v>
+        <v>11222500</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -8176,11 +8188,11 @@
       </c>
       <c r="E192">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F192">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>75066.579709575992</v>
+        <v>18922500</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -8200,11 +8212,11 @@
       </c>
       <c r="E193">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F193">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1267914.7140903391</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -8224,11 +8236,11 @@
       </c>
       <c r="E194">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F194">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>389354.54611438524</v>
+        <v>22090000</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -8248,11 +8260,11 @@
       </c>
       <c r="E195">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F195">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>602202.68049514829</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -8272,11 +8284,11 @@
       </c>
       <c r="E196">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F196">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>106287.20872990302</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -8296,11 +8308,11 @@
       </c>
       <c r="E197">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F197">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>224659.70336946697</v>
+        <v>20702500</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -8320,11 +8332,11 @@
       </c>
       <c r="E198">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F198">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>30982.051474821263</v>
+        <v>15210000</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -8344,11 +8356,11 @@
       </c>
       <c r="E199">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F199">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>767406.11866520275</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -8368,11 +8380,11 @@
       </c>
       <c r="E200">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F200">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>104964.86062454873</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -8392,11 +8404,11 @@
       </c>
       <c r="E201">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F201">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>575.17513471225175</v>
+        <v>16810000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -8416,11 +8428,11 @@
       </c>
       <c r="E202">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F202">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50168.298794603244</v>
+        <v>18490000</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -8440,11 +8452,11 @@
       </c>
       <c r="E203">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F203">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>51083.770559848519</v>
+        <v>14822500</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -8464,11 +8476,11 @@
       </c>
       <c r="E204">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F204">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50168.298794603244</v>
+        <v>18490000</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -8488,11 +8500,11 @@
       </c>
       <c r="E205">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F205">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>456999.24232509377</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -8512,11 +8524,11 @@
       </c>
       <c r="E206">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F206">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5778.6133047667572</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -8536,11 +8548,11 @@
       </c>
       <c r="E207">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F207">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>30982.051474821263</v>
+        <v>15210000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -8560,11 +8572,11 @@
       </c>
       <c r="E208">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F208">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>676.89421973950448</v>
+        <v>16402500</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -8584,11 +8596,11 @@
       </c>
       <c r="E209">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F209">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>602202.68049514829</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -8608,11 +8620,11 @@
       </c>
       <c r="E210">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F210">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5778.6133047667572</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -8632,11 +8644,11 @@
       </c>
       <c r="E211">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F211">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>391897.52324006654</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -8656,11 +8668,11 @@
       </c>
       <c r="E212">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F212">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>224659.70336946697</v>
+        <v>20702500</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -8680,11 +8692,11 @@
       </c>
       <c r="E213">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F213">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>767406.11866520275</v>
+        <v>10240000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -8704,11 +8716,11 @@
       </c>
       <c r="E214">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F214">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50168.298794603244</v>
+        <v>18490000</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -8728,11 +8740,11 @@
       </c>
       <c r="E215">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F215">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>456999.24232509377</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -8752,11 +8764,11 @@
       </c>
       <c r="E216">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F216">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>329456.26519941248</v>
+        <v>21622500</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -8776,11 +8788,11 @@
       </c>
       <c r="E217">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F217">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141388.92781493027</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -8800,11 +8812,11 @@
       </c>
       <c r="E218">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F218">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>389354.54611438524</v>
+        <v>22090000</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -8824,11 +8836,11 @@
       </c>
       <c r="E219">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F219">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>181490.64689995753</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -8848,11 +8860,11 @@
       </c>
       <c r="E220">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F220">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>524151.10794433072</v>
+        <v>23040000</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -8872,11 +8884,11 @@
       </c>
       <c r="E221">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F221">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141388.92781493027</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -8896,11 +8908,11 @@
       </c>
       <c r="E222">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F222">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>224659.70336946697</v>
+        <v>20702500</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -8920,11 +8932,11 @@
       </c>
       <c r="E223">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F223">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>106287.20872990302</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -8944,11 +8956,11 @@
       </c>
       <c r="E224">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F224">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5778.6133047667572</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -8968,11 +8980,11 @@
       </c>
       <c r="E225">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F225">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>575.17513471225175</v>
+        <v>16810000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -8992,11 +9004,11 @@
       </c>
       <c r="E226">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F226">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15371.736964657746</v>
+        <v>17640000</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -9016,11 +9028,11 @@
       </c>
       <c r="E227">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F227">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141388.92781493027</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -9040,11 +9052,11 @@
       </c>
       <c r="E228">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F228">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>524151.10794433072</v>
+        <v>23040000</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -9064,11 +9076,11 @@
       </c>
       <c r="E229">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F229">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>226592.36598498479</v>
+        <v>12960000</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -9088,11 +9100,11 @@
       </c>
       <c r="E230">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F230">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>853744.23160422174</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -9112,11 +9124,11 @@
       </c>
       <c r="E231">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F231">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>106287.20872990302</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -9136,11 +9148,11 @@
       </c>
       <c r="E232">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F232">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>763845.95068924897</v>
+        <v>24502500</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -9160,11 +9172,11 @@
       </c>
       <c r="E233">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F233">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>203416.50644247115</v>
+        <v>13140625</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -9184,11 +9196,11 @@
       </c>
       <c r="E234">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F234">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>139863.14153952149</v>
+        <v>19802500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -9208,11 +9220,11 @@
       </c>
       <c r="E235">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F235">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>123213.06827241665</v>
+        <v>13875625</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -9232,11 +9244,11 @@
       </c>
       <c r="E236">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F236">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>75066.579709575992</v>
+        <v>18922500</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -9256,11 +9268,11 @@
       </c>
       <c r="E237">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F237">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>106287.20872990302</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -9280,11 +9292,11 @@
       </c>
       <c r="E238">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F238">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>274557.98428443971</v>
+        <v>21160000</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -9304,11 +9316,11 @@
       </c>
       <c r="E239">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F239">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>226592.36598498479</v>
+        <v>12960000</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -9328,11 +9340,11 @@
       </c>
       <c r="E240">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F240">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>50168.298794603244</v>
+        <v>18490000</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -9352,11 +9364,11 @@
       </c>
       <c r="E241">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F241">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40407.911017334889</v>
+        <v>15015625</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -9376,11 +9388,11 @@
       </c>
       <c r="E242">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F242">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>224659.70336946697</v>
+        <v>20702500</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -9400,11 +9412,11 @@
       </c>
       <c r="E243">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F243">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15880.33238979401</v>
+        <v>15602500</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -9424,11 +9436,11 @@
       </c>
       <c r="E244">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F244">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>104964.86062454873</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -9448,11 +9460,11 @@
       </c>
       <c r="E245">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F245">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>106287.20872990302</v>
+        <v>14062500</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -9472,11 +9484,11 @@
       </c>
       <c r="E246">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F246">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>329456.26519941248</v>
+        <v>21622500</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -9496,11 +9508,11 @@
       </c>
       <c r="E247">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F247">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>51083.770559848519</v>
+        <v>14822500</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -9520,11 +9532,11 @@
       </c>
       <c r="E248">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F248">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15371.736964657746</v>
+        <v>17640000</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -9544,11 +9556,11 @@
       </c>
       <c r="E249">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F249">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22806.191932307636</v>
+        <v>15405625</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -9568,11 +9580,11 @@
       </c>
       <c r="E250">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F250">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40407.911017334889</v>
+        <v>15015625</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -9592,11 +9604,11 @@
       </c>
       <c r="E251">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F251">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>203416.50644247115</v>
+        <v>13140625</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -9616,11 +9628,11 @@
       </c>
       <c r="E252">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F252">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>30270.017879630494</v>
+        <v>18062500</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -9640,11 +9652,11 @@
       </c>
       <c r="E253">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F253">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>51083.770559848519</v>
+        <v>14822500</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -9664,11 +9676,11 @@
       </c>
       <c r="E254">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F254">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>274557.98428443971</v>
+        <v>21160000</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -9688,11 +9700,11 @@
       </c>
       <c r="E255">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F255">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>10204.472847280384</v>
+        <v>15800625</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -9712,11 +9724,11 @@
       </c>
       <c r="E256">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F256">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>179761.42245449423</v>
+        <v>20250000</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -9736,11 +9748,11 @@
       </c>
       <c r="E257">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F257">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>123213.06827241665</v>
+        <v>13875625</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -9760,11 +9772,11 @@
       </c>
       <c r="E258">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F258">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>179761.42245449423</v>
+        <v>20250000</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -9784,11 +9796,11 @@
       </c>
       <c r="E259">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F259">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>141388.92781493027</v>
+        <v>13690000</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -9808,11 +9820,11 @@
       </c>
       <c r="E260">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F260">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>179761.42245449423</v>
+        <v>20250000</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -9832,11 +9844,11 @@
       </c>
       <c r="E261">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F261">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>251018.22552749841</v>
+        <v>12780625</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -9856,11 +9868,11 @@
       </c>
       <c r="E262">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F262">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>179761.42245449423</v>
+        <v>20250000</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -9880,11 +9892,11 @@
       </c>
       <c r="E263">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F263">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>5778.6133047667572</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -9904,11 +9916,11 @@
       </c>
       <c r="E264">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F264">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>763845.95068924897</v>
+        <v>24502500</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -9928,11 +9940,11 @@
       </c>
       <c r="E265">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F265">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>181490.64689995753</v>
+        <v>13322500</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -9952,11 +9964,11 @@
       </c>
       <c r="E266">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F266">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>179761.42245449423</v>
+        <v>20250000</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -9976,11 +9988,11 @@
       </c>
       <c r="E267">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F267">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>491425.10186760745</v>
+        <v>11390625</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -10000,11 +10012,11 @@
       </c>
       <c r="E268">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F268">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>599049.38885930344</v>
+        <v>23522500</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -10024,11 +10036,11 @@
       </c>
       <c r="E269">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F269">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>40407.911017334889</v>
+        <v>15015625</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -10048,11 +10060,11 @@
       </c>
       <c r="E270">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F270">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>853744.23160422174</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -10072,11 +10084,11 @@
       </c>
       <c r="E271">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F271">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>22806.191932307636</v>
+        <v>15405625</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -10096,11 +10108,11 @@
       </c>
       <c r="E272">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F272">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>51083.770559848519</v>
+        <v>14822500</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -10120,11 +10132,11 @@
       </c>
       <c r="E273">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F273">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>454252.82702935796</v>
+        <v>22562500</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -10144,11 +10156,11 @@
       </c>
       <c r="E274">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F274">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>15371.736964657746</v>
+        <v>17640000</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -10168,11 +10180,11 @@
       </c>
       <c r="E275">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>5076.0171908502725</v>
+        <v>1000</v>
       </c>
       <c r="F275">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>104964.86062454873</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -10192,11 +10204,11 @@
       </c>
       <c r="E276">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F276">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>54331.201560258683</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -10216,11 +10228,11 @@
       </c>
       <c r="E277">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F277">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>27858.766603867458</v>
+        <v>8410000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -10240,11 +10252,11 @@
       </c>
       <c r="E278">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F278">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>6904.0384516119721</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -10264,11 +10276,11 @@
       </c>
       <c r="E279">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F279">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>43301.674375484232</v>
+        <v>6375625</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -10288,11 +10300,11 @@
       </c>
       <c r="E280">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F280">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>65.456897288617327</v>
+        <v>7425625</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -10312,11 +10324,11 @@
       </c>
       <c r="E281">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F281">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>47049.712234318555</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -10336,11 +10348,11 @@
       </c>
       <c r="E282">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F282">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>233376.47340800319</v>
+        <v>5062500</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -10360,11 +10372,11 @@
       </c>
       <c r="E283">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F283">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>285.92971251416571</v>
+        <v>7562500</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -10384,11 +10396,11 @@
       </c>
       <c r="E284">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F284">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>173813.49475612293</v>
+        <v>9922500</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -10408,11 +10420,11 @@
       </c>
       <c r="E285">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F285">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1094.9840820630689</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -10432,11 +10444,11 @@
       </c>
       <c r="E286">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F286">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>4476.8753429652625</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -10456,11 +10468,11 @@
       </c>
       <c r="E287">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F287">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1756.4025277397141</v>
+        <v>7700625</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -10480,11 +10492,11 @@
       </c>
       <c r="E288">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F288">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1094.9840820630689</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -10504,11 +10516,11 @@
       </c>
       <c r="E289">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F289">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>100431.60349522074</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -10528,11 +10540,11 @@
       </c>
       <c r="E290">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F290">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>24992.620005935329</v>
+        <v>6630625</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -10552,11 +10564,11 @@
       </c>
       <c r="E291">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F291">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>100431.60349522074</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -10576,11 +10588,11 @@
       </c>
       <c r="E292">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F292">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>187567.4190384543</v>
+        <v>5290000</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -10600,11 +10612,11 @@
       </c>
       <c r="E293">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F293">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1094.9840820630689</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -10624,11 +10636,11 @@
       </c>
       <c r="E294">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F294">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>80140.255929807579</v>
+        <v>6002500</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -10648,11 +10660,11 @@
       </c>
       <c r="E295">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F295">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>444768.2229083784</v>
+        <v>11560000</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -10672,11 +10684,11 @@
       </c>
       <c r="E296">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F296">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>17713.092821160877</v>
+        <v>6760000</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -10696,11 +10708,11 @@
       </c>
       <c r="E297">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F297">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>110949.31029935648</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -10720,11 +10732,11 @@
       </c>
       <c r="E298">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F298">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>694039.85399484553</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -10744,11 +10756,11 @@
       </c>
       <c r="E299">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F299">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>4476.8753429652625</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -10768,11 +10780,11 @@
       </c>
       <c r="E300">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F300">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>187567.4190384543</v>
+        <v>5290000</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -10792,11 +10804,11 @@
       </c>
       <c r="E301">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F301">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>173813.49475612293</v>
+        <v>9922500</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -10816,11 +10828,11 @@
       </c>
       <c r="E302">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F302">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>110949.31029935648</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -10840,11 +10852,11 @@
       </c>
       <c r="E303">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F303">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>4476.8753429652625</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -10864,11 +10876,11 @@
       </c>
       <c r="E304">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F304">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1094.9840820630689</v>
+        <v>7290000</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -10888,11 +10900,11 @@
       </c>
       <c r="E305">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F305">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>667341.05979973171</v>
+        <v>12602500</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -10912,11 +10924,11 @@
       </c>
       <c r="E306">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F306">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>284185.52777755208</v>
+        <v>4840000</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -10936,11 +10948,11 @@
       </c>
       <c r="E307">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F307">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>321386.33164747624</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -10960,11 +10972,11 @@
       </c>
       <c r="E308">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F308">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>146758.36466890539</v>
+        <v>5522500</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -10984,11 +10996,11 @@
       </c>
       <c r="E309">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F309">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>134622.54912567185</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -11008,11 +11020,11 @@
       </c>
       <c r="E310">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F310">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>17713.092821160877</v>
+        <v>6760000</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -11032,11 +11044,11 @@
       </c>
       <c r="E311">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F311">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>27858.766603867458</v>
+        <v>8410000</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -11056,11 +11068,11 @@
       </c>
       <c r="E312">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F312">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>13667.820973416359</v>
+        <v>8122500</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -11080,11 +11092,11 @@
       </c>
       <c r="E313">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F313">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1138295.7879519872</v>
+        <v>14440000</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -11104,11 +11116,11 @@
       </c>
       <c r="E314">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F314">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1067276.0714730411</v>
+        <v>2890000</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -11128,11 +11140,11 @@
       </c>
       <c r="E315">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F315">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>588150.11416928063</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -11152,11 +11164,11 @@
       </c>
       <c r="E316">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F316">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>47049.712234318555</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -11176,11 +11188,11 @@
       </c>
       <c r="E317">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F317">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>6904.0384516119721</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -11200,11 +11212,11 @@
       </c>
       <c r="E318">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F318">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>33522.14719070978</v>
+        <v>6502500</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -11224,11 +11236,11 @@
       </c>
       <c r="E319">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F319">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>54331.201560258683</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -11248,11 +11260,11 @@
       </c>
       <c r="E320">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F320">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>3374.5112668375205</v>
+        <v>7155625</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -11272,11 +11284,11 @@
       </c>
       <c r="E321">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F321">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>513959.16853882954</v>
+        <v>11902500</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -11296,11 +11308,11 @@
       </c>
       <c r="E322">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F322">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>110949.31029935648</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -11320,11 +11332,11 @@
       </c>
       <c r="E323">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F323">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>321386.33164747624</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -11344,11 +11356,11 @@
       </c>
       <c r="E324">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F324">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>233376.47340800319</v>
+        <v>5062500</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -11368,11 +11380,11 @@
       </c>
       <c r="E325">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F325">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>3374.5112668375205</v>
+        <v>7155625</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -11392,11 +11404,11 @@
       </c>
       <c r="E326">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F326">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>166537.89185367984</v>
+        <v>5405625</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -11416,11 +11428,11 @@
       </c>
       <c r="E327">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F327">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>47049.712234318555</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -11440,11 +11452,11 @@
       </c>
       <c r="E328">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F328">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>17713.092821160877</v>
+        <v>6760000</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -11464,11 +11476,11 @@
       </c>
       <c r="E329">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F329">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>100431.60349522074</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -11488,11 +11500,11 @@
       </c>
       <c r="E330">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F330">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>146758.36466890539</v>
+        <v>5522500</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -11512,11 +11524,11 @@
       </c>
       <c r="E331">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F331">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>80140.255929807579</v>
+        <v>6002500</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -11536,11 +11548,11 @@
       </c>
       <c r="E332">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F332">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>233376.47340800319</v>
+        <v>5062500</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -11560,11 +11572,11 @@
       </c>
       <c r="E333">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F333">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>100431.60349522074</v>
+        <v>9302500</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -11584,11 +11596,11 @@
       </c>
       <c r="E334">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F334">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>4476.8753429652625</v>
+        <v>7840000</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -11608,11 +11620,11 @@
       </c>
       <c r="E335">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F335">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>43301.674375484232</v>
+        <v>6375625</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -11632,11 +11644,11 @@
       </c>
       <c r="E336">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F336">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>47049.712234318555</v>
+        <v>8702500</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -11656,11 +11668,11 @@
       </c>
       <c r="E337">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F337">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>6904.0384516119721</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -11680,11 +11692,11 @@
       </c>
       <c r="E338">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F338">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>6904.0384516119721</v>
+        <v>7022500</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
@@ -11704,11 +11716,11 @@
       </c>
       <c r="E339">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F339">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>71240.657864769644</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -11728,11 +11740,11 @@
       </c>
       <c r="E340">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F340">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>110949.31029935648</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -11752,11 +11764,11 @@
       </c>
       <c r="E341">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F341">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1756.4025277397141</v>
+        <v>7700625</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -11776,11 +11788,11 @@
       </c>
       <c r="E342">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F342">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>134622.54912567185</v>
+        <v>9610000</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -11800,11 +11812,11 @@
       </c>
       <c r="E343">
         <f>$J$6*Table3[[#This Row],[isChinstrap]]+$J$7*Table3[[#This Row],[isGentoo]]+$J$8</f>
-        <v>3733.090543695489</v>
+        <v>1000</v>
       </c>
       <c r="F343">
         <f>(Table3[[#This Row],[body_mass_g]]-Table3[[#This Row],[predicted_body_mass_g]])^2</f>
-        <v>1756.4025277397141</v>
+        <v>7700625</v>
       </c>
     </row>
   </sheetData>
